--- a/data/pca/factorExposure/factorExposure_2011-06-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-06-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.01698709574742996</v>
+        <v>-0.01573978809348498</v>
       </c>
       <c r="C2">
-        <v>0.006246620941078767</v>
+        <v>0.0006912926664041369</v>
       </c>
       <c r="D2">
-        <v>0.05154885513546359</v>
+        <v>0.006081827154015186</v>
       </c>
       <c r="E2">
-        <v>0.02867110050967984</v>
+        <v>0.03936351033729087</v>
       </c>
       <c r="F2">
-        <v>0.03907222899062317</v>
+        <v>4.622941492873474e-05</v>
       </c>
       <c r="G2">
-        <v>0.01480087844559327</v>
+        <v>-0.02921999130929238</v>
       </c>
       <c r="H2">
-        <v>-0.0269971367418203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.02699962395627855</v>
+      </c>
+      <c r="I2">
+        <v>-0.008001750578374586</v>
+      </c>
+      <c r="J2">
+        <v>-0.05002993005912523</v>
+      </c>
+      <c r="K2">
+        <v>-0.03789579566209662</v>
+      </c>
+      <c r="L2">
+        <v>-0.01162198553581493</v>
+      </c>
+      <c r="M2">
+        <v>0.002007756726591917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.07713452962514113</v>
+        <v>-0.1069363527946446</v>
       </c>
       <c r="C4">
-        <v>-0.05643565116240462</v>
+        <v>0.07984368120889813</v>
       </c>
       <c r="D4">
-        <v>0.03248524739032762</v>
+        <v>0.01838638903874864</v>
       </c>
       <c r="E4">
-        <v>0.05242215114580127</v>
+        <v>0.04982049742397487</v>
       </c>
       <c r="F4">
-        <v>0.01159599168400307</v>
+        <v>0.1342591482224925</v>
       </c>
       <c r="G4">
-        <v>0.009988246598103006</v>
+        <v>0.0140475391316748</v>
       </c>
       <c r="H4">
-        <v>-0.001916776326314315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.001714374552980642</v>
+      </c>
+      <c r="I4">
+        <v>-0.06263277620722121</v>
+      </c>
+      <c r="J4">
+        <v>0.03969706577286178</v>
+      </c>
+      <c r="K4">
+        <v>0.04882982654791419</v>
+      </c>
+      <c r="L4">
+        <v>0.05204273655353615</v>
+      </c>
+      <c r="M4">
+        <v>0.0453043248848508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1254187180695023</v>
+        <v>-0.1313283973924303</v>
       </c>
       <c r="C6">
-        <v>-0.03035364312162023</v>
+        <v>0.05189101872667101</v>
       </c>
       <c r="D6">
-        <v>0.0411699589871419</v>
+        <v>0.003246037012855924</v>
       </c>
       <c r="E6">
-        <v>0.0580498776880047</v>
+        <v>0.003692380500978205</v>
       </c>
       <c r="F6">
-        <v>-0.1130947660677603</v>
+        <v>0.01887265905378194</v>
       </c>
       <c r="G6">
-        <v>0.01152723177652908</v>
+        <v>0.1403567185911865</v>
       </c>
       <c r="H6">
-        <v>0.2949656545515893</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.1819852977147139</v>
+      </c>
+      <c r="I6">
+        <v>-0.3190215384796021</v>
+      </c>
+      <c r="J6">
+        <v>0.2500155956466904</v>
+      </c>
+      <c r="K6">
+        <v>-0.09739803285421537</v>
+      </c>
+      <c r="L6">
+        <v>-0.1009317139619026</v>
+      </c>
+      <c r="M6">
+        <v>0.005114039822530401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.07074734086111832</v>
+        <v>-0.07473909858209919</v>
       </c>
       <c r="C7">
-        <v>-0.05583520017004912</v>
+        <v>0.07020796945006752</v>
       </c>
       <c r="D7">
-        <v>0.05706643588573924</v>
+        <v>0.008557844109804799</v>
       </c>
       <c r="E7">
-        <v>0.04540584816450594</v>
+        <v>0.05218466574098524</v>
       </c>
       <c r="F7">
-        <v>-0.03193171709674692</v>
+        <v>0.02318110721769423</v>
       </c>
       <c r="G7">
-        <v>-0.006104496944532048</v>
+        <v>-0.002183459413579635</v>
       </c>
       <c r="H7">
-        <v>-0.01680823268603402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.009804574548600564</v>
+      </c>
+      <c r="I7">
+        <v>0.02357688103567111</v>
+      </c>
+      <c r="J7">
+        <v>0.01227210821650101</v>
+      </c>
+      <c r="K7">
+        <v>0.05197793440962502</v>
+      </c>
+      <c r="L7">
+        <v>0.09835878596768999</v>
+      </c>
+      <c r="M7">
+        <v>-0.02037952515451691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.02917393674702134</v>
+        <v>-0.03800119880475195</v>
       </c>
       <c r="C8">
-        <v>-0.01032741024381266</v>
+        <v>0.01047863623333417</v>
       </c>
       <c r="D8">
-        <v>0.05123438673504371</v>
+        <v>0.01321799470725576</v>
       </c>
       <c r="E8">
-        <v>0.05596508310137872</v>
+        <v>0.04697877808103613</v>
       </c>
       <c r="F8">
-        <v>0.01415901474327946</v>
+        <v>0.102400769864889</v>
       </c>
       <c r="G8">
-        <v>0.05942018132116879</v>
+        <v>0.004509404684180571</v>
       </c>
       <c r="H8">
-        <v>-0.03354489179208923</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.01365379831484098</v>
+      </c>
+      <c r="I8">
+        <v>-0.07248701823327192</v>
+      </c>
+      <c r="J8">
+        <v>0.01036612578183013</v>
+      </c>
+      <c r="K8">
+        <v>0.02239175400685156</v>
+      </c>
+      <c r="L8">
+        <v>0.06659820196068014</v>
+      </c>
+      <c r="M8">
+        <v>0.04039532256253421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.07553248761414154</v>
+        <v>-0.08321065957844889</v>
       </c>
       <c r="C9">
-        <v>-0.06629089395682367</v>
+        <v>0.07376142610767723</v>
       </c>
       <c r="D9">
-        <v>0.03576581853594506</v>
+        <v>-0.002288569500704344</v>
       </c>
       <c r="E9">
-        <v>0.04469891189171933</v>
+        <v>0.03370535356452529</v>
       </c>
       <c r="F9">
-        <v>0.02745267920226436</v>
+        <v>0.1279256691980962</v>
       </c>
       <c r="G9">
-        <v>0.01536678734454446</v>
+        <v>0.01504546158740935</v>
       </c>
       <c r="H9">
-        <v>-0.002806734059102851</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.002215510795816684</v>
+      </c>
+      <c r="I9">
+        <v>-0.02757927811828262</v>
+      </c>
+      <c r="J9">
+        <v>0.02619027238290607</v>
+      </c>
+      <c r="K9">
+        <v>0.00996260443643752</v>
+      </c>
+      <c r="L9">
+        <v>0.04523675470912652</v>
+      </c>
+      <c r="M9">
+        <v>-0.007661047264785917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.06040700582152134</v>
+        <v>-0.1128837666006884</v>
       </c>
       <c r="C10">
-        <v>0.135656372583313</v>
+        <v>-0.1667802645831779</v>
       </c>
       <c r="D10">
-        <v>0.06352841260053922</v>
+        <v>0.003825693910127564</v>
       </c>
       <c r="E10">
-        <v>0.03343760431318269</v>
+        <v>0.05240705236754011</v>
       </c>
       <c r="F10">
-        <v>-0.04254997122336793</v>
+        <v>-0.009770809522127184</v>
       </c>
       <c r="G10">
-        <v>-0.004785699989624026</v>
+        <v>0.01225723042644566</v>
       </c>
       <c r="H10">
-        <v>0.03039600632265353</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.002001271116796161</v>
+      </c>
+      <c r="I10">
+        <v>0.06051674075862952</v>
+      </c>
+      <c r="J10">
+        <v>0.005473411055913683</v>
+      </c>
+      <c r="K10">
+        <v>-0.0003740240468146709</v>
+      </c>
+      <c r="L10">
+        <v>0.01182929671015751</v>
+      </c>
+      <c r="M10">
+        <v>-0.1182701166815038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.07109371930654129</v>
+        <v>-0.06869228718726063</v>
       </c>
       <c r="C11">
-        <v>-0.08780669861831972</v>
+        <v>0.07310267904956176</v>
       </c>
       <c r="D11">
-        <v>0.03357612541041807</v>
+        <v>-0.03084718481956575</v>
       </c>
       <c r="E11">
-        <v>0.01667019893837493</v>
+        <v>0.01567077038039584</v>
       </c>
       <c r="F11">
-        <v>0.04386095547973161</v>
+        <v>0.1175733971168202</v>
       </c>
       <c r="G11">
-        <v>0.06965413470277462</v>
+        <v>0.006639932550111679</v>
       </c>
       <c r="H11">
-        <v>-0.06283024609012336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.005547321321579638</v>
+      </c>
+      <c r="I11">
+        <v>0.06935677663910228</v>
+      </c>
+      <c r="J11">
+        <v>-0.05196421122911914</v>
+      </c>
+      <c r="K11">
+        <v>-0.04542953258768435</v>
+      </c>
+      <c r="L11">
+        <v>0.04278690154754314</v>
+      </c>
+      <c r="M11">
+        <v>-0.1146811692827845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.06899006824537125</v>
+        <v>-0.07204239851288886</v>
       </c>
       <c r="C12">
-        <v>-0.06066331258760985</v>
+        <v>0.06547994292915899</v>
       </c>
       <c r="D12">
-        <v>0.02027249717449884</v>
+        <v>-0.02957652434461365</v>
       </c>
       <c r="E12">
-        <v>0.03570287867674203</v>
+        <v>0.005878236220892625</v>
       </c>
       <c r="F12">
-        <v>-0.002265354809013694</v>
+        <v>0.1259604261147181</v>
       </c>
       <c r="G12">
-        <v>0.04483737997818963</v>
+        <v>-0.0006815133690627606</v>
       </c>
       <c r="H12">
-        <v>-0.0538478045354797</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.02513876769098728</v>
+      </c>
+      <c r="I12">
+        <v>0.04502146189330035</v>
+      </c>
+      <c r="J12">
+        <v>-0.05556869329953251</v>
+      </c>
+      <c r="K12">
+        <v>-0.03695079241740871</v>
+      </c>
+      <c r="L12">
+        <v>0.07310936851714119</v>
+      </c>
+      <c r="M12">
+        <v>-0.1355635065973743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.05627205589848312</v>
+        <v>-0.04619890146890968</v>
       </c>
       <c r="C13">
-        <v>-0.01198909732826015</v>
+        <v>0.03061398349374345</v>
       </c>
       <c r="D13">
-        <v>-0.00549986815388686</v>
+        <v>0.02382278425742929</v>
       </c>
       <c r="E13">
-        <v>0.01495122644337772</v>
+        <v>0.01071610322946319</v>
       </c>
       <c r="F13">
-        <v>0.0580562570549397</v>
+        <v>0.04344229584335664</v>
       </c>
       <c r="G13">
-        <v>-0.006160944282170412</v>
+        <v>-0.01298524762652292</v>
       </c>
       <c r="H13">
-        <v>-0.006164154931246378</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.0161724465515948</v>
+      </c>
+      <c r="I13">
+        <v>-0.008379009450997546</v>
+      </c>
+      <c r="J13">
+        <v>0.01445214299418992</v>
+      </c>
+      <c r="K13">
+        <v>0.04504056025547474</v>
+      </c>
+      <c r="L13">
+        <v>0.04171281909941366</v>
+      </c>
+      <c r="M13">
+        <v>0.03996848962322053</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.04827983125301321</v>
+        <v>-0.04296034431027177</v>
       </c>
       <c r="C14">
-        <v>-0.02213416269415236</v>
+        <v>0.02952835629252498</v>
       </c>
       <c r="D14">
-        <v>0.01838825478217703</v>
+        <v>-0.01416995285959115</v>
       </c>
       <c r="E14">
-        <v>0.005496234073217617</v>
+        <v>0.01514252940336685</v>
       </c>
       <c r="F14">
-        <v>-0.01636564542509015</v>
+        <v>0.06715350505002911</v>
       </c>
       <c r="G14">
-        <v>0.01660402576802177</v>
+        <v>-0.02495514493094058</v>
       </c>
       <c r="H14">
-        <v>0.07022694227143345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.03508064817059589</v>
+      </c>
+      <c r="I14">
+        <v>-0.03502306494198597</v>
+      </c>
+      <c r="J14">
+        <v>0.07257293702782225</v>
+      </c>
+      <c r="K14">
+        <v>0.02990344442536239</v>
+      </c>
+      <c r="L14">
+        <v>0.04755352389620689</v>
+      </c>
+      <c r="M14">
+        <v>0.02953604977046046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.04070698196747241</v>
+        <v>-0.02978230357509055</v>
       </c>
       <c r="C15">
-        <v>0.00863081202231415</v>
+        <v>0.00734423082161849</v>
       </c>
       <c r="D15">
-        <v>-0.007289569803413526</v>
+        <v>0.05679379564074052</v>
       </c>
       <c r="E15">
-        <v>0.02198065516581053</v>
+        <v>0.002179299805418872</v>
       </c>
       <c r="F15">
-        <v>0.004868847784253668</v>
+        <v>0.008400633155197085</v>
       </c>
       <c r="G15">
-        <v>-0.01481389912284565</v>
+        <v>0.02970156815850772</v>
       </c>
       <c r="H15">
-        <v>0.01320094057186993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.03220067263861023</v>
+      </c>
+      <c r="I15">
+        <v>-0.04213598702426347</v>
+      </c>
+      <c r="J15">
+        <v>0.04557474887869824</v>
+      </c>
+      <c r="K15">
+        <v>0.04737258814405249</v>
+      </c>
+      <c r="L15">
+        <v>0.01782782946519453</v>
+      </c>
+      <c r="M15">
+        <v>-0.0120599059083821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.05984714934254969</v>
+        <v>-0.07305546200468777</v>
       </c>
       <c r="C16">
-        <v>-0.08407476742478857</v>
+        <v>0.0799132393359539</v>
       </c>
       <c r="D16">
-        <v>0.02836017266089878</v>
+        <v>-0.02000776053364812</v>
       </c>
       <c r="E16">
-        <v>0.04016052737384587</v>
+        <v>0.01518308709672178</v>
       </c>
       <c r="F16">
-        <v>0.04010717564595837</v>
+        <v>0.1161646717980813</v>
       </c>
       <c r="G16">
-        <v>0.04820105523547022</v>
+        <v>-0.008734396078618509</v>
       </c>
       <c r="H16">
-        <v>-0.0583910745230296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.0129665386053961</v>
+      </c>
+      <c r="I16">
+        <v>0.05272772787624351</v>
+      </c>
+      <c r="J16">
+        <v>-0.04914138900270924</v>
+      </c>
+      <c r="K16">
+        <v>-0.03895546166326684</v>
+      </c>
+      <c r="L16">
+        <v>0.0799235299674813</v>
+      </c>
+      <c r="M16">
+        <v>-0.1089623992872423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.04256895559259745</v>
+        <v>-0.04546798587371127</v>
       </c>
       <c r="C20">
-        <v>-0.04355697427710191</v>
+        <v>0.03139813600778334</v>
       </c>
       <c r="D20">
-        <v>0.007422733404294103</v>
+        <v>0.02506356146299931</v>
       </c>
       <c r="E20">
-        <v>0.02015782439019122</v>
+        <v>0.01945239974922322</v>
       </c>
       <c r="F20">
-        <v>0.02325892317717723</v>
+        <v>0.06537405392455369</v>
       </c>
       <c r="G20">
-        <v>0.02028538809450571</v>
+        <v>-0.01420608210309762</v>
       </c>
       <c r="H20">
-        <v>-0.01510516061366509</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.0155257864551995</v>
+      </c>
+      <c r="I20">
+        <v>-0.01081434128995213</v>
+      </c>
+      <c r="J20">
+        <v>0.03533211312987029</v>
+      </c>
+      <c r="K20">
+        <v>0.01909875143140739</v>
+      </c>
+      <c r="L20">
+        <v>0.07728202764125128</v>
+      </c>
+      <c r="M20">
+        <v>-0.01377338582140665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.02259313693583007</v>
+        <v>-0.03071697870242859</v>
       </c>
       <c r="C21">
-        <v>-0.03068896222186195</v>
+        <v>0.02556932466442657</v>
       </c>
       <c r="D21">
-        <v>0.0004280028026541633</v>
+        <v>0.007640775679921117</v>
       </c>
       <c r="E21">
-        <v>0.05635769095960423</v>
+        <v>0.02134520389495258</v>
       </c>
       <c r="F21">
-        <v>-0.07778761384636643</v>
+        <v>0.06537626283630102</v>
       </c>
       <c r="G21">
-        <v>-0.01377910713792707</v>
+        <v>0.09671783395234136</v>
       </c>
       <c r="H21">
-        <v>0.02462039945243643</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.02677243737508124</v>
+      </c>
+      <c r="I21">
+        <v>0.04708217367902797</v>
+      </c>
+      <c r="J21">
+        <v>0.05672995854623122</v>
+      </c>
+      <c r="K21">
+        <v>0.06758503020383186</v>
+      </c>
+      <c r="L21">
+        <v>0.06233890073985661</v>
+      </c>
+      <c r="M21">
+        <v>0.00662853765136726</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.01572106969926582</v>
+        <v>-0.04196773404426571</v>
       </c>
       <c r="C22">
-        <v>-0.04029552176387606</v>
+        <v>0.01487518421350922</v>
       </c>
       <c r="D22">
-        <v>-0.128970019171265</v>
+        <v>0.6567805238013764</v>
       </c>
       <c r="E22">
-        <v>0.507556536969112</v>
+        <v>0.04873105014907256</v>
       </c>
       <c r="F22">
-        <v>0.08892146487035073</v>
+        <v>-0.0685491813117606</v>
       </c>
       <c r="G22">
-        <v>-0.3200035010574576</v>
+        <v>-0.07479726219039767</v>
       </c>
       <c r="H22">
-        <v>-0.09965454917475364</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.08995413540027374</v>
+      </c>
+      <c r="I22">
+        <v>0.1064309100819198</v>
+      </c>
+      <c r="J22">
+        <v>0.02750514048919539</v>
+      </c>
+      <c r="K22">
+        <v>-0.03053051964740289</v>
+      </c>
+      <c r="L22">
+        <v>-0.00501538668133956</v>
+      </c>
+      <c r="M22">
+        <v>0.003474641080819605</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.0144593235762521</v>
+        <v>-0.04220613807112699</v>
       </c>
       <c r="C23">
-        <v>-0.03859880859017203</v>
+        <v>0.01506720465453547</v>
       </c>
       <c r="D23">
-        <v>-0.1286646192355911</v>
+        <v>0.6582786256013379</v>
       </c>
       <c r="E23">
-        <v>0.5061667483574637</v>
+        <v>0.04923873062016822</v>
       </c>
       <c r="F23">
-        <v>0.08849146254802562</v>
+        <v>-0.06551495732658927</v>
       </c>
       <c r="G23">
-        <v>-0.320027599576151</v>
+        <v>-0.07584076574400683</v>
       </c>
       <c r="H23">
-        <v>-0.09726664662769383</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.09078009984944592</v>
+      </c>
+      <c r="I23">
+        <v>0.1033708043978307</v>
+      </c>
+      <c r="J23">
+        <v>0.02766935235726971</v>
+      </c>
+      <c r="K23">
+        <v>-0.03320991216132935</v>
+      </c>
+      <c r="L23">
+        <v>-0.006590890583143355</v>
+      </c>
+      <c r="M23">
+        <v>0.004526886322435197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.07546287196280574</v>
+        <v>-0.07755883965580471</v>
       </c>
       <c r="C24">
-        <v>-0.07667123746030274</v>
+        <v>0.07746768736495319</v>
       </c>
       <c r="D24">
-        <v>0.03352957596544231</v>
+        <v>-0.01519429384695395</v>
       </c>
       <c r="E24">
-        <v>0.04491866138735083</v>
+        <v>0.01775192136072258</v>
       </c>
       <c r="F24">
-        <v>0.02498285365870793</v>
+        <v>0.1170222004257947</v>
       </c>
       <c r="G24">
-        <v>0.04642221602377398</v>
+        <v>0.002741260239653597</v>
       </c>
       <c r="H24">
-        <v>-0.03966325835535029</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.01539349557219996</v>
+      </c>
+      <c r="I24">
+        <v>0.05420105688566584</v>
+      </c>
+      <c r="J24">
+        <v>-0.04685231109000272</v>
+      </c>
+      <c r="K24">
+        <v>-0.05597749841522493</v>
+      </c>
+      <c r="L24">
+        <v>0.04959222102529794</v>
+      </c>
+      <c r="M24">
+        <v>-0.1055524702729979</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.06743696029901992</v>
+        <v>-0.07486406029110805</v>
       </c>
       <c r="C25">
-        <v>-0.04149098362283749</v>
+        <v>0.05220406125821929</v>
       </c>
       <c r="D25">
-        <v>0.02964573609321233</v>
+        <v>-0.03262163340270892</v>
       </c>
       <c r="E25">
-        <v>0.04996427987841971</v>
+        <v>0.01450224922369305</v>
       </c>
       <c r="F25">
-        <v>0.04043272973583931</v>
+        <v>0.1262072612584003</v>
       </c>
       <c r="G25">
-        <v>0.06306708200848674</v>
+        <v>-0.01048635164996372</v>
       </c>
       <c r="H25">
-        <v>-0.01608756342646137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.006695101789695232</v>
+      </c>
+      <c r="I25">
+        <v>0.05077501196195879</v>
+      </c>
+      <c r="J25">
+        <v>-0.04853293911556677</v>
+      </c>
+      <c r="K25">
+        <v>-0.07744954115241458</v>
+      </c>
+      <c r="L25">
+        <v>0.05315970126753525</v>
+      </c>
+      <c r="M25">
+        <v>-0.1121420003286212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.04427203541254956</v>
+        <v>-0.04321134821675193</v>
       </c>
       <c r="C26">
-        <v>-0.03709723990115989</v>
+        <v>0.02215329715760491</v>
       </c>
       <c r="D26">
-        <v>0.03493214497826064</v>
+        <v>0.0129027005629765</v>
       </c>
       <c r="E26">
-        <v>0.002092118405946177</v>
+        <v>-0.001799870730379489</v>
       </c>
       <c r="F26">
-        <v>0.0106224174597992</v>
+        <v>0.03594497602486177</v>
       </c>
       <c r="G26">
-        <v>-0.02602333847236731</v>
+        <v>-0.008984344095688209</v>
       </c>
       <c r="H26">
-        <v>-0.004940132197781531</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.01330831901396124</v>
+      </c>
+      <c r="I26">
+        <v>0.01751945248165229</v>
+      </c>
+      <c r="J26">
+        <v>0.08666924778362496</v>
+      </c>
+      <c r="K26">
+        <v>0.1166996889706521</v>
+      </c>
+      <c r="L26">
+        <v>0.07658185002643153</v>
+      </c>
+      <c r="M26">
+        <v>-0.01821781844631786</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.1093593368956266</v>
+        <v>-0.1446610935951236</v>
       </c>
       <c r="C28">
-        <v>0.2950363279217489</v>
+        <v>-0.2854515987619953</v>
       </c>
       <c r="D28">
-        <v>0.04327433690016252</v>
+        <v>-0.01341816056318156</v>
       </c>
       <c r="E28">
-        <v>-0.002813357582938951</v>
+        <v>0.02991441993234534</v>
       </c>
       <c r="F28">
-        <v>-0.04944275307382662</v>
+        <v>0.002788255018919336</v>
       </c>
       <c r="G28">
-        <v>-0.01989066537249935</v>
+        <v>0.003770965032802619</v>
       </c>
       <c r="H28">
-        <v>-0.05507794040689731</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.01833268349614397</v>
+      </c>
+      <c r="I28">
+        <v>-0.01190662135511885</v>
+      </c>
+      <c r="J28">
+        <v>-0.0002190840634688488</v>
+      </c>
+      <c r="K28">
+        <v>0.03545527900118953</v>
+      </c>
+      <c r="L28">
+        <v>0.0193968906355858</v>
+      </c>
+      <c r="M28">
+        <v>0.01475656847156397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.05304885037546803</v>
+        <v>-0.04386812049140053</v>
       </c>
       <c r="C29">
-        <v>-0.02117092148480855</v>
+        <v>0.02819346110966441</v>
       </c>
       <c r="D29">
-        <v>0.008897213928632458</v>
+        <v>-0.003028769871250217</v>
       </c>
       <c r="E29">
-        <v>0.02600548452525147</v>
+        <v>0.01870880485499607</v>
       </c>
       <c r="F29">
-        <v>0.003524593857881712</v>
+        <v>0.06211393566889749</v>
       </c>
       <c r="G29">
-        <v>-0.01552933185314253</v>
+        <v>-0.02724579710849295</v>
       </c>
       <c r="H29">
-        <v>0.02169698655411168</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.01981926428394125</v>
+      </c>
+      <c r="I29">
+        <v>-0.0139984060884342</v>
+      </c>
+      <c r="J29">
+        <v>0.0641402424742727</v>
+      </c>
+      <c r="K29">
+        <v>0.01984184244711539</v>
+      </c>
+      <c r="L29">
+        <v>0.04662030955851491</v>
+      </c>
+      <c r="M29">
+        <v>0.01387429364003472</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.1301557638115867</v>
+        <v>-0.0980837064243853</v>
       </c>
       <c r="C30">
-        <v>-0.04920295252173578</v>
+        <v>0.06560708576418131</v>
       </c>
       <c r="D30">
-        <v>0.05398302642426645</v>
+        <v>0.003299633589457905</v>
       </c>
       <c r="E30">
-        <v>0.139146335008056</v>
+        <v>0.03825543423874966</v>
       </c>
       <c r="F30">
-        <v>-0.0291069259333096</v>
+        <v>0.1920872424995992</v>
       </c>
       <c r="G30">
-        <v>0.1360009185147258</v>
+        <v>-0.0213522604757216</v>
       </c>
       <c r="H30">
-        <v>-0.04250279940101788</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.2509772913361352</v>
+      </c>
+      <c r="I30">
+        <v>0.06596770065776882</v>
+      </c>
+      <c r="J30">
+        <v>0.1185127462014807</v>
+      </c>
+      <c r="K30">
+        <v>0.08550794909270326</v>
+      </c>
+      <c r="L30">
+        <v>0.101100574464611</v>
+      </c>
+      <c r="M30">
+        <v>0.4141429543368875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.04998719963355897</v>
+        <v>-0.03509591108497779</v>
       </c>
       <c r="C31">
-        <v>-0.02600062367798199</v>
+        <v>0.04686338424556212</v>
       </c>
       <c r="D31">
-        <v>-0.01029770884285329</v>
+        <v>0.004915408358250166</v>
       </c>
       <c r="E31">
-        <v>-0.005075767373537406</v>
+        <v>-0.01016543364373816</v>
       </c>
       <c r="F31">
-        <v>0.01720969555649478</v>
+        <v>0.0240976714057218</v>
       </c>
       <c r="G31">
-        <v>-0.03587245276290255</v>
+        <v>-0.0263405843374796</v>
       </c>
       <c r="H31">
-        <v>0.007252757130187883</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.03619836603109093</v>
+      </c>
+      <c r="I31">
+        <v>-0.02852764595804502</v>
+      </c>
+      <c r="J31">
+        <v>0.006306377401334961</v>
+      </c>
+      <c r="K31">
+        <v>0.0004638392803864986</v>
+      </c>
+      <c r="L31">
+        <v>0.03228133506836443</v>
+      </c>
+      <c r="M31">
+        <v>-0.0008909282266931625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.02185149852261324</v>
+        <v>-0.042186569836453</v>
       </c>
       <c r="C32">
-        <v>0.02105770440742358</v>
+        <v>-0.003716416477255081</v>
       </c>
       <c r="D32">
-        <v>-0.02317296099075355</v>
+        <v>-0.01338180421533703</v>
       </c>
       <c r="E32">
-        <v>0.08531324362305628</v>
+        <v>0.0005811672073639243</v>
       </c>
       <c r="F32">
-        <v>0.07364343285785389</v>
+        <v>0.08875884590712592</v>
       </c>
       <c r="G32">
-        <v>0.03448308260671118</v>
+        <v>0.01905639721664</v>
       </c>
       <c r="H32">
-        <v>-0.05262830144708738</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.0803747165900118</v>
+      </c>
+      <c r="I32">
+        <v>-0.01389226247926647</v>
+      </c>
+      <c r="J32">
+        <v>-0.0251762815382455</v>
+      </c>
+      <c r="K32">
+        <v>0.05152390328969813</v>
+      </c>
+      <c r="L32">
+        <v>0.02639694911740725</v>
+      </c>
+      <c r="M32">
+        <v>0.1314484069082479</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.1007706140458757</v>
+        <v>-0.09938371278996379</v>
       </c>
       <c r="C33">
-        <v>-0.04113559587658542</v>
+        <v>0.06712966610620255</v>
       </c>
       <c r="D33">
-        <v>0.003085485997004494</v>
+        <v>-0.01024419446292702</v>
       </c>
       <c r="E33">
-        <v>0.01551022257595649</v>
+        <v>-0.01179235445311896</v>
       </c>
       <c r="F33">
-        <v>0.0521237128527639</v>
+        <v>0.0777543846243381</v>
       </c>
       <c r="G33">
-        <v>0.02132095970974805</v>
+        <v>-0.02068197699910599</v>
       </c>
       <c r="H33">
-        <v>-0.01523691338197027</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.009841356059320783</v>
+      </c>
+      <c r="I33">
+        <v>0.01393518623873637</v>
+      </c>
+      <c r="J33">
+        <v>0.06193428758152932</v>
+      </c>
+      <c r="K33">
+        <v>-0.0001721988404967846</v>
+      </c>
+      <c r="L33">
+        <v>0.006327333915132382</v>
+      </c>
+      <c r="M33">
+        <v>-0.004032982326424669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05585063818478225</v>
+        <v>-0.06323790208240224</v>
       </c>
       <c r="C34">
-        <v>-0.08128503424347246</v>
+        <v>0.06322408074259986</v>
       </c>
       <c r="D34">
-        <v>0.0204448592836394</v>
+        <v>-0.0254411954717832</v>
       </c>
       <c r="E34">
-        <v>0.03187445530014019</v>
+        <v>0.01210723591775006</v>
       </c>
       <c r="F34">
-        <v>0.02195001702645413</v>
+        <v>0.1035189142441412</v>
       </c>
       <c r="G34">
-        <v>0.03568663924854093</v>
+        <v>-0.003681809333729963</v>
       </c>
       <c r="H34">
-        <v>-0.03257096071814572</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.004440626437419281</v>
+      </c>
+      <c r="I34">
+        <v>0.03506599617891666</v>
+      </c>
+      <c r="J34">
+        <v>-0.03205829456305671</v>
+      </c>
+      <c r="K34">
+        <v>-0.0472492938691222</v>
+      </c>
+      <c r="L34">
+        <v>0.0545053675683015</v>
+      </c>
+      <c r="M34">
+        <v>-0.1249173356101391</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.04335485601856295</v>
+        <v>-0.025990662640503</v>
       </c>
       <c r="C35">
-        <v>-0.04122811925397424</v>
+        <v>0.02859557495150217</v>
       </c>
       <c r="D35">
-        <v>0.007347600066980541</v>
+        <v>-0.0009486987129461022</v>
       </c>
       <c r="E35">
-        <v>0.01491780812441997</v>
+        <v>-0.0007230128205624456</v>
       </c>
       <c r="F35">
-        <v>0.01082091239148255</v>
+        <v>0.034269946838625</v>
       </c>
       <c r="G35">
-        <v>0.02488921094417709</v>
+        <v>-0.008047956325952696</v>
       </c>
       <c r="H35">
-        <v>-0.01360253537171789</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.002462874657713624</v>
+      </c>
+      <c r="I35">
+        <v>0.03078999065182075</v>
+      </c>
+      <c r="J35">
+        <v>0.01097296690034586</v>
+      </c>
+      <c r="K35">
+        <v>0.02739567933120389</v>
+      </c>
+      <c r="L35">
+        <v>0.07546419655698418</v>
+      </c>
+      <c r="M35">
+        <v>0.0004043060796072053</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.03600594264034267</v>
+        <v>-0.03007570723823949</v>
       </c>
       <c r="C36">
-        <v>-0.02050286852155834</v>
+        <v>0.02137624906180871</v>
       </c>
       <c r="D36">
-        <v>0.02032622818938148</v>
+        <v>0.01395717735649465</v>
       </c>
       <c r="E36">
-        <v>0.03439424675814689</v>
+        <v>0.01029681001188898</v>
       </c>
       <c r="F36">
-        <v>0.03169569860251079</v>
+        <v>0.06870410952052414</v>
       </c>
       <c r="G36">
-        <v>0.01793767573954648</v>
+        <v>-0.007361764200631578</v>
       </c>
       <c r="H36">
-        <v>0.01750472415344958</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.005905168433902324</v>
+      </c>
+      <c r="I36">
+        <v>-0.005934358619211707</v>
+      </c>
+      <c r="J36">
+        <v>0.05016402410032762</v>
+      </c>
+      <c r="K36">
+        <v>0.01744237438709582</v>
+      </c>
+      <c r="L36">
+        <v>0.03760743860404293</v>
+      </c>
+      <c r="M36">
+        <v>-0.03580536231899866</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.04399752275245315</v>
+        <v>-0.03042934459134702</v>
       </c>
       <c r="C38">
-        <v>-0.03764247926990389</v>
+        <v>0.04790687615510994</v>
       </c>
       <c r="D38">
-        <v>-0.02219812012339344</v>
+        <v>0.02612808999488198</v>
       </c>
       <c r="E38">
-        <v>0.03941455822659708</v>
+        <v>0.0002135261221301868</v>
       </c>
       <c r="F38">
-        <v>0.03477544609995703</v>
+        <v>-0.05063565413482049</v>
       </c>
       <c r="G38">
-        <v>-0.006181971294073921</v>
+        <v>-0.05117323444897986</v>
       </c>
       <c r="H38">
-        <v>-0.04205873753518351</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.01037631016030936</v>
+      </c>
+      <c r="I38">
+        <v>0.06840365712463291</v>
+      </c>
+      <c r="J38">
+        <v>0.06547075827099924</v>
+      </c>
+      <c r="K38">
+        <v>0.08818303241464588</v>
+      </c>
+      <c r="L38">
+        <v>-0.04462805557520663</v>
+      </c>
+      <c r="M38">
+        <v>0.1056494211890891</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.09656425529273158</v>
+        <v>-0.09982291837879351</v>
       </c>
       <c r="C39">
-        <v>-0.09653701147575627</v>
+        <v>0.09384600031374682</v>
       </c>
       <c r="D39">
-        <v>0.01372778158571905</v>
+        <v>-0.08490067455435028</v>
       </c>
       <c r="E39">
-        <v>0.03829100998284771</v>
+        <v>-0.01896232731927845</v>
       </c>
       <c r="F39">
-        <v>0.01510336300818227</v>
+        <v>0.1591749741175723</v>
       </c>
       <c r="G39">
-        <v>0.07859882885645432</v>
+        <v>-0.07340913936253955</v>
       </c>
       <c r="H39">
-        <v>-0.1297319732446445</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.0947974031371881</v>
+      </c>
+      <c r="I39">
+        <v>0.1074528345891303</v>
+      </c>
+      <c r="J39">
+        <v>-0.1353566819986597</v>
+      </c>
+      <c r="K39">
+        <v>-0.065006740747208</v>
+      </c>
+      <c r="L39">
+        <v>0.152905429118739</v>
+      </c>
+      <c r="M39">
+        <v>0.04304788267401734</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.04984586146121826</v>
+        <v>-0.03596051703452985</v>
       </c>
       <c r="C40">
-        <v>-0.04254340083592686</v>
+        <v>0.05929385141267276</v>
       </c>
       <c r="D40">
-        <v>-0.05747785809794814</v>
+        <v>0.05136839201995487</v>
       </c>
       <c r="E40">
-        <v>0.1460501387202448</v>
+        <v>-0.0005357202640435425</v>
       </c>
       <c r="F40">
-        <v>0.06267393032795703</v>
+        <v>0.1180253072784665</v>
       </c>
       <c r="G40">
-        <v>0.07970236746782744</v>
+        <v>0.07777712838863673</v>
       </c>
       <c r="H40">
-        <v>-0.1184502713737733</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.002584148738279337</v>
+      </c>
+      <c r="I40">
+        <v>0.108341536077579</v>
+      </c>
+      <c r="J40">
+        <v>0.04308731442826053</v>
+      </c>
+      <c r="K40">
+        <v>0.1311083257842483</v>
+      </c>
+      <c r="L40">
+        <v>-0.03097014765985447</v>
+      </c>
+      <c r="M40">
+        <v>0.0469234554566326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04596639453168632</v>
+        <v>-0.03843157268251662</v>
       </c>
       <c r="C41">
-        <v>-0.05055363752339725</v>
+        <v>0.03685745859999016</v>
       </c>
       <c r="D41">
-        <v>0.009712032820190161</v>
+        <v>-0.01552970846185051</v>
       </c>
       <c r="E41">
-        <v>0.004102270688179943</v>
+        <v>-0.001437080149015609</v>
       </c>
       <c r="F41">
-        <v>0.02972287875846354</v>
+        <v>0.01796118958638982</v>
       </c>
       <c r="G41">
-        <v>0.00671976243624433</v>
+        <v>-0.02431218900205938</v>
       </c>
       <c r="H41">
-        <v>-0.03013127427503617</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.01166744411172176</v>
+      </c>
+      <c r="I41">
+        <v>0.01661610705999412</v>
+      </c>
+      <c r="J41">
+        <v>0.006509630662937894</v>
+      </c>
+      <c r="K41">
+        <v>0.03856127241455617</v>
+      </c>
+      <c r="L41">
+        <v>0.02015951627936462</v>
+      </c>
+      <c r="M41">
+        <v>-0.03517570573696145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.06033633566108896</v>
+        <v>-0.05252230500384828</v>
       </c>
       <c r="C43">
-        <v>-0.04038924635501554</v>
+        <v>0.04467917188166005</v>
       </c>
       <c r="D43">
-        <v>0.02811948059208364</v>
+        <v>0.0132761887925775</v>
       </c>
       <c r="E43">
-        <v>0.0369633270073722</v>
+        <v>0.009899455309444347</v>
       </c>
       <c r="F43">
-        <v>0.01224219996947383</v>
+        <v>0.01308307366227676</v>
       </c>
       <c r="G43">
-        <v>-0.02048799333418071</v>
+        <v>-0.05315086753693062</v>
       </c>
       <c r="H43">
-        <v>-0.01445523664688999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.01322690514384984</v>
+      </c>
+      <c r="I43">
+        <v>0.00428490751703576</v>
+      </c>
+      <c r="J43">
+        <v>-0.005598905495958416</v>
+      </c>
+      <c r="K43">
+        <v>0.01258765159192945</v>
+      </c>
+      <c r="L43">
+        <v>0.03075788663540849</v>
+      </c>
+      <c r="M43">
+        <v>-0.02587512761744863</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.05317970628708644</v>
+        <v>-0.08206235453347026</v>
       </c>
       <c r="C44">
-        <v>-0.01034243492031997</v>
+        <v>0.05635129113746166</v>
       </c>
       <c r="D44">
-        <v>0.06547984237542848</v>
+        <v>0.07960369586205326</v>
       </c>
       <c r="E44">
-        <v>0.1228632452305829</v>
+        <v>0.1059282054883451</v>
       </c>
       <c r="F44">
-        <v>0.03333315409659355</v>
+        <v>0.1680106782255441</v>
       </c>
       <c r="G44">
-        <v>0.1173745919369625</v>
+        <v>0.007152945911634775</v>
       </c>
       <c r="H44">
-        <v>-0.03196449299841263</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.01956602802741644</v>
+      </c>
+      <c r="I44">
+        <v>0.09508696502358908</v>
+      </c>
+      <c r="J44">
+        <v>-0.0068814306924721</v>
+      </c>
+      <c r="K44">
+        <v>0.03913443347562803</v>
+      </c>
+      <c r="L44">
+        <v>0.01419315502066476</v>
+      </c>
+      <c r="M44">
+        <v>0.1271162711497519</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.02129604348463148</v>
+        <v>-0.03186690986104677</v>
       </c>
       <c r="C46">
-        <v>-0.04334394799287911</v>
+        <v>0.03893351285107389</v>
       </c>
       <c r="D46">
-        <v>0.01020296997702232</v>
+        <v>0.04055229041262758</v>
       </c>
       <c r="E46">
-        <v>0.03700514295779207</v>
+        <v>0.03646259229386037</v>
       </c>
       <c r="F46">
-        <v>0.008936926262809846</v>
+        <v>0.03574362202323785</v>
       </c>
       <c r="G46">
-        <v>-0.01084236238198781</v>
+        <v>0.01384840539117173</v>
       </c>
       <c r="H46">
-        <v>-0.009326347370808698</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.0443158103726517</v>
+      </c>
+      <c r="I46">
+        <v>-0.01908518640650669</v>
+      </c>
+      <c r="J46">
+        <v>0.08140444881464841</v>
+      </c>
+      <c r="K46">
+        <v>0.04412214403281934</v>
+      </c>
+      <c r="L46">
+        <v>0.06240967547053912</v>
+      </c>
+      <c r="M46">
+        <v>-0.01465925817009128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.02625241557936347</v>
+        <v>-0.0457906496100917</v>
       </c>
       <c r="C47">
-        <v>0.0002533230608996514</v>
+        <v>0.02804584357177852</v>
       </c>
       <c r="D47">
-        <v>-0.01435758363710133</v>
+        <v>0.01858518573609356</v>
       </c>
       <c r="E47">
-        <v>0.06840532112551727</v>
+        <v>0.008602346796135855</v>
       </c>
       <c r="F47">
-        <v>0.02626600605372144</v>
+        <v>0.04459349772347562</v>
       </c>
       <c r="G47">
-        <v>0.008616890429776715</v>
+        <v>-0.01871065476001658</v>
       </c>
       <c r="H47">
-        <v>0.03929357056539279</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.007289905997101594</v>
+      </c>
+      <c r="I47">
+        <v>0.003331985904012042</v>
+      </c>
+      <c r="J47">
+        <v>0.05393139658394611</v>
+      </c>
+      <c r="K47">
+        <v>0.003911018641326865</v>
+      </c>
+      <c r="L47">
+        <v>0.02279201242530374</v>
+      </c>
+      <c r="M47">
+        <v>-0.03941260180667214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03229102432995604</v>
+        <v>-0.04167754360252081</v>
       </c>
       <c r="C48">
-        <v>-0.02598038347937823</v>
+        <v>0.02022996187217697</v>
       </c>
       <c r="D48">
-        <v>-0.001816662563688811</v>
+        <v>0.01074384744568522</v>
       </c>
       <c r="E48">
-        <v>0.05193807290275338</v>
+        <v>0.0006290483708876123</v>
       </c>
       <c r="F48">
-        <v>0.02589488453008252</v>
+        <v>0.07352534945118586</v>
       </c>
       <c r="G48">
-        <v>-0.02412644284089093</v>
+        <v>0.03246226600412075</v>
       </c>
       <c r="H48">
-        <v>0.0004844808223764732</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.002887049179451261</v>
+      </c>
+      <c r="I48">
+        <v>-0.01405597772550731</v>
+      </c>
+      <c r="J48">
+        <v>0.02754710104039204</v>
+      </c>
+      <c r="K48">
+        <v>0.01308607017367918</v>
+      </c>
+      <c r="L48">
+        <v>0.07527500214323532</v>
+      </c>
+      <c r="M48">
+        <v>-0.02383087482029216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.2073834283071776</v>
+        <v>-0.2256639402920821</v>
       </c>
       <c r="C49">
-        <v>-0.1224928050193401</v>
+        <v>0.07579317260570806</v>
       </c>
       <c r="D49">
-        <v>0.07361676291738144</v>
+        <v>-0.05426953105425612</v>
       </c>
       <c r="E49">
-        <v>-0.05167356114137488</v>
+        <v>0.03044234683758559</v>
       </c>
       <c r="F49">
-        <v>-0.185624707279869</v>
+        <v>-0.2455513338526863</v>
       </c>
       <c r="G49">
-        <v>0.01396796376986696</v>
+        <v>0.1460978871744346</v>
       </c>
       <c r="H49">
-        <v>-0.0301727791030987</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.0478915119579627</v>
+      </c>
+      <c r="I49">
+        <v>0.1534605214061419</v>
+      </c>
+      <c r="J49">
+        <v>-0.07333149991989409</v>
+      </c>
+      <c r="K49">
+        <v>-0.1505712708939612</v>
+      </c>
+      <c r="L49">
+        <v>-0.02652149940115019</v>
+      </c>
+      <c r="M49">
+        <v>-0.09824965151069545</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05508530558258455</v>
+        <v>-0.04284869328470112</v>
       </c>
       <c r="C50">
-        <v>-0.02610348365657124</v>
+        <v>0.04304421246241579</v>
       </c>
       <c r="D50">
-        <v>-0.003833341760933435</v>
+        <v>0.002605090215441781</v>
       </c>
       <c r="E50">
-        <v>0.02142931871088097</v>
+        <v>-0.01243397913376846</v>
       </c>
       <c r="F50">
-        <v>0.05026075890381524</v>
+        <v>0.04705164386630732</v>
       </c>
       <c r="G50">
-        <v>-0.0383375026184686</v>
+        <v>-0.03403603991308131</v>
       </c>
       <c r="H50">
-        <v>0.03797808189423152</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.01746801407924308</v>
+      </c>
+      <c r="I50">
+        <v>-0.02648603189126688</v>
+      </c>
+      <c r="J50">
+        <v>0.05252643802613693</v>
+      </c>
+      <c r="K50">
+        <v>0.01438681892077849</v>
+      </c>
+      <c r="L50">
+        <v>0.01841651926901353</v>
+      </c>
+      <c r="M50">
+        <v>0.02355922309751854</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.02941681439221636</v>
+        <v>-0.02911587558170256</v>
       </c>
       <c r="C51">
-        <v>-0.01174173591529046</v>
+        <v>0.005131693760292715</v>
       </c>
       <c r="D51">
-        <v>0.001799252971093526</v>
+        <v>-0.001506547477768047</v>
       </c>
       <c r="E51">
-        <v>0.01242160675189778</v>
+        <v>0.0195329444026108</v>
       </c>
       <c r="F51">
-        <v>-0.00219436488629054</v>
+        <v>-0.01706324056716381</v>
       </c>
       <c r="G51">
-        <v>0.01541691814532356</v>
+        <v>-0.006675167716458472</v>
       </c>
       <c r="H51">
-        <v>-0.01776643778783948</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.01510087611270107</v>
+      </c>
+      <c r="I51">
+        <v>0.01978688220073497</v>
+      </c>
+      <c r="J51">
+        <v>-0.05970645716164218</v>
+      </c>
+      <c r="K51">
+        <v>-0.06756487761671716</v>
+      </c>
+      <c r="L51">
+        <v>-0.003669078185742358</v>
+      </c>
+      <c r="M51">
+        <v>0.0113922181146536</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.02114969980298555</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.01028487145071834</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01455078352126682</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.003542026888527855</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.007693894423055393</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.02342517096255107</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.0008217916658872981</v>
+      </c>
+      <c r="I52">
+        <v>-0.004557925491429977</v>
+      </c>
+      <c r="J52">
+        <v>-0.01172033901542003</v>
+      </c>
+      <c r="K52">
+        <v>0.007576823688955923</v>
+      </c>
+      <c r="L52">
+        <v>0.009741541552262711</v>
+      </c>
+      <c r="M52">
+        <v>0.02193032987170509</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1691402403991894</v>
+        <v>-0.1553346764503032</v>
       </c>
       <c r="C53">
-        <v>-0.01034324340889124</v>
+        <v>0.04803396917827657</v>
       </c>
       <c r="D53">
-        <v>0.02230596485476391</v>
+        <v>-0.01242393223147595</v>
       </c>
       <c r="E53">
-        <v>-0.0843637700081714</v>
+        <v>-0.008449442701569913</v>
       </c>
       <c r="F53">
-        <v>0.2548176307773707</v>
+        <v>-0.05746103970330027</v>
       </c>
       <c r="G53">
-        <v>0.0014639669524056</v>
+        <v>-0.2299297523385905</v>
       </c>
       <c r="H53">
-        <v>0.04239560609394962</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.1287112461113139</v>
+      </c>
+      <c r="I53">
+        <v>-0.03577261558725109</v>
+      </c>
+      <c r="J53">
+        <v>0.0630262563878487</v>
+      </c>
+      <c r="K53">
+        <v>-0.02535433820950999</v>
+      </c>
+      <c r="L53">
+        <v>-0.08269698424334067</v>
+      </c>
+      <c r="M53">
+        <v>0.1033813233709721</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.04848006895047369</v>
+        <v>-0.0584706246821572</v>
       </c>
       <c r="C54">
-        <v>-0.03193109362711924</v>
+        <v>0.03735596724139717</v>
       </c>
       <c r="D54">
-        <v>0.02513358144276943</v>
+        <v>0.01754984101766975</v>
       </c>
       <c r="E54">
-        <v>0.05105386810686274</v>
+        <v>0.02627107590998221</v>
       </c>
       <c r="F54">
-        <v>0.01954529891132812</v>
+        <v>0.1209037548482985</v>
       </c>
       <c r="G54">
-        <v>-0.001729225065011894</v>
+        <v>0.02592210921269899</v>
       </c>
       <c r="H54">
-        <v>0.0001139288685048757</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.02778368510866999</v>
+      </c>
+      <c r="I54">
+        <v>-0.07326200511728476</v>
+      </c>
+      <c r="J54">
+        <v>0.06752500857125199</v>
+      </c>
+      <c r="K54">
+        <v>0.08610248540014974</v>
+      </c>
+      <c r="L54">
+        <v>0.0602600957778567</v>
+      </c>
+      <c r="M54">
+        <v>-0.03393489977790994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.09049420576501485</v>
+        <v>-0.08671879289516571</v>
       </c>
       <c r="C55">
-        <v>-0.0008172710553501628</v>
+        <v>0.04118612104741136</v>
       </c>
       <c r="D55">
-        <v>0.0165993164128873</v>
+        <v>-0.02987640165053683</v>
       </c>
       <c r="E55">
-        <v>-0.02421038486433945</v>
+        <v>0.002905742818961827</v>
       </c>
       <c r="F55">
-        <v>0.2213256660860033</v>
+        <v>0.01629803444954059</v>
       </c>
       <c r="G55">
-        <v>-0.008968118432074488</v>
+        <v>-0.1504503165853031</v>
       </c>
       <c r="H55">
-        <v>0.05926522893383094</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.09556737124864811</v>
+      </c>
+      <c r="I55">
+        <v>-0.02881136251750166</v>
+      </c>
+      <c r="J55">
+        <v>0.04882188881611649</v>
+      </c>
+      <c r="K55">
+        <v>-0.02785774501242579</v>
+      </c>
+      <c r="L55">
+        <v>-0.04741078944880829</v>
+      </c>
+      <c r="M55">
+        <v>0.01756626229647244</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1635403841000263</v>
+        <v>-0.1491427766281097</v>
       </c>
       <c r="C56">
-        <v>-0.01403905957782989</v>
+        <v>0.07243286486111988</v>
       </c>
       <c r="D56">
-        <v>0.04177737745184822</v>
+        <v>-0.03203393490520235</v>
       </c>
       <c r="E56">
-        <v>-0.07729479325350637</v>
+        <v>0.009712455563591526</v>
       </c>
       <c r="F56">
-        <v>0.2387402300641428</v>
+        <v>-0.03177149079014335</v>
       </c>
       <c r="G56">
-        <v>-0.04786343864678808</v>
+        <v>-0.222438622277551</v>
       </c>
       <c r="H56">
-        <v>0.05453222606929039</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.1179781900096917</v>
+      </c>
+      <c r="I56">
+        <v>-0.02247992571486857</v>
+      </c>
+      <c r="J56">
+        <v>0.04962732562214871</v>
+      </c>
+      <c r="K56">
+        <v>0.002011269185533176</v>
+      </c>
+      <c r="L56">
+        <v>-0.1021788200299053</v>
+      </c>
+      <c r="M56">
+        <v>0.04798895549793251</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1102 +3040,1747 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.02265757930771822</v>
+        <v>-0.03357917973713812</v>
       </c>
       <c r="C58">
-        <v>0.0006614095415814792</v>
+        <v>0.03078586951163666</v>
       </c>
       <c r="D58">
-        <v>-0.04505228427761335</v>
+        <v>0.08090384768604003</v>
       </c>
       <c r="E58">
-        <v>0.3537709934131981</v>
+        <v>0.01218329831837373</v>
       </c>
       <c r="F58">
-        <v>-0.2151636882474186</v>
+        <v>0.05455887745524269</v>
       </c>
       <c r="G58">
-        <v>0.02363816734925012</v>
+        <v>0.05889048886381837</v>
       </c>
       <c r="H58">
-        <v>0.2268909590275638</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.1455420454411749</v>
+      </c>
+      <c r="I58">
+        <v>-0.07080925028188473</v>
+      </c>
+      <c r="J58">
+        <v>-0.09808398130119356</v>
+      </c>
+      <c r="K58">
+        <v>-0.2185022236013538</v>
+      </c>
+      <c r="L58">
+        <v>0.3988614997706388</v>
+      </c>
+      <c r="M58">
+        <v>-0.02874284082260103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.2360863804108971</v>
+        <v>-0.2276197397588274</v>
       </c>
       <c r="C59">
-        <v>0.4107648435595373</v>
+        <v>-0.2992902765750887</v>
       </c>
       <c r="D59">
-        <v>0.03715960374380007</v>
+        <v>-0.0465641294576592</v>
       </c>
       <c r="E59">
-        <v>0.002854374151693109</v>
+        <v>0.009703475060946135</v>
       </c>
       <c r="F59">
-        <v>0.05998804948475675</v>
+        <v>0.03028276534901351</v>
       </c>
       <c r="G59">
-        <v>0.03346214121394515</v>
+        <v>-0.06868520523866789</v>
       </c>
       <c r="H59">
-        <v>-0.08045523032355113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.06249121265315812</v>
+      </c>
+      <c r="I59">
+        <v>-0.006398363466092352</v>
+      </c>
+      <c r="J59">
+        <v>-0.1172413939938576</v>
+      </c>
+      <c r="K59">
+        <v>0.01830855387014615</v>
+      </c>
+      <c r="L59">
+        <v>-0.08346115705558523</v>
+      </c>
+      <c r="M59">
+        <v>0.04072339190307778</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2530305427663972</v>
+        <v>-0.2417891008067715</v>
       </c>
       <c r="C60">
-        <v>-0.07095811095933927</v>
+        <v>0.1193012178309484</v>
       </c>
       <c r="D60">
-        <v>0.08865714522432244</v>
+        <v>-0.05814169739003982</v>
       </c>
       <c r="E60">
-        <v>0.008918542311949204</v>
+        <v>0.05117029304846962</v>
       </c>
       <c r="F60">
-        <v>-0.05091897337212215</v>
+        <v>-0.104510467138235</v>
       </c>
       <c r="G60">
-        <v>-0.01658543440438353</v>
+        <v>0.05472228955475973</v>
       </c>
       <c r="H60">
-        <v>0.076370438156406</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.0825887005492537</v>
+      </c>
+      <c r="I60">
+        <v>-0.01921872235192735</v>
+      </c>
+      <c r="J60">
+        <v>0.0157047297884711</v>
+      </c>
+      <c r="K60">
+        <v>-0.1707240456571529</v>
+      </c>
+      <c r="L60">
+        <v>-0.1717353214473706</v>
+      </c>
+      <c r="M60">
+        <v>0.06745071792512522</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.08278789844378301</v>
+        <v>-0.0926012886158579</v>
       </c>
       <c r="C61">
-        <v>-0.06123858986729067</v>
+        <v>0.06882464301562835</v>
       </c>
       <c r="D61">
-        <v>0.01347878381682072</v>
+        <v>-0.04740001602063126</v>
       </c>
       <c r="E61">
-        <v>0.01021506473796053</v>
+        <v>0.0134432135626869</v>
       </c>
       <c r="F61">
-        <v>0.016486827298097</v>
+        <v>0.1269119779622932</v>
       </c>
       <c r="G61">
-        <v>0.01180596324865462</v>
+        <v>-0.07083620214615539</v>
       </c>
       <c r="H61">
-        <v>-0.06589827597800073</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.01756877765751512</v>
+      </c>
+      <c r="I61">
+        <v>0.05758005519018625</v>
+      </c>
+      <c r="J61">
+        <v>-0.04717140254709971</v>
+      </c>
+      <c r="K61">
+        <v>-0.0007781529338250114</v>
+      </c>
+      <c r="L61">
+        <v>0.0850995241143232</v>
+      </c>
+      <c r="M61">
+        <v>-0.004710088113447572</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1598384303834817</v>
+        <v>-0.1403822229462455</v>
       </c>
       <c r="C62">
-        <v>-0.0491464450596573</v>
+        <v>0.07185687077845967</v>
       </c>
       <c r="D62">
-        <v>0.003348643904536395</v>
+        <v>-0.03035452226717103</v>
       </c>
       <c r="E62">
-        <v>-0.1385462190803852</v>
+        <v>-0.03627022602184021</v>
       </c>
       <c r="F62">
-        <v>0.2248484319175388</v>
+        <v>-0.0402263592629352</v>
       </c>
       <c r="G62">
-        <v>0.0186209179877863</v>
+        <v>-0.1657672264852382</v>
       </c>
       <c r="H62">
-        <v>-0.004892571331258399</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.1408780943860838</v>
+      </c>
+      <c r="I62">
+        <v>-0.01634456044227173</v>
+      </c>
+      <c r="J62">
+        <v>0.1066612638409668</v>
+      </c>
+      <c r="K62">
+        <v>0.03154779993429293</v>
+      </c>
+      <c r="L62">
+        <v>-0.09859111289104351</v>
+      </c>
+      <c r="M62">
+        <v>-0.01706279200093989</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.03906990461268313</v>
+        <v>-0.04560982387945413</v>
       </c>
       <c r="C63">
-        <v>-0.0425090336734234</v>
+        <v>0.03068086323272084</v>
       </c>
       <c r="D63">
-        <v>0.003295801473960985</v>
+        <v>-0.007289309492457806</v>
       </c>
       <c r="E63">
-        <v>-0.001133345695699853</v>
+        <v>-0.01148202872351431</v>
       </c>
       <c r="F63">
-        <v>0.02025618792819891</v>
+        <v>0.0697208360752415</v>
       </c>
       <c r="G63">
-        <v>0.01513554409444411</v>
+        <v>-0.003003251037801596</v>
       </c>
       <c r="H63">
-        <v>0.04424220579252248</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.005091335223617639</v>
+      </c>
+      <c r="I63">
+        <v>-0.009364196915128013</v>
+      </c>
+      <c r="J63">
+        <v>0.03577159113798509</v>
+      </c>
+      <c r="K63">
+        <v>-0.005721933359532925</v>
+      </c>
+      <c r="L63">
+        <v>0.04448821674843958</v>
+      </c>
+      <c r="M63">
+        <v>-0.02053563059182788</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.1031826138936596</v>
+        <v>-0.09844520211175599</v>
       </c>
       <c r="C64">
-        <v>-0.02712775991975048</v>
+        <v>0.04552321567234077</v>
       </c>
       <c r="D64">
-        <v>0.03355018128653224</v>
+        <v>0.008508134121399339</v>
       </c>
       <c r="E64">
-        <v>0.04577816822758456</v>
+        <v>0.04062074110830355</v>
       </c>
       <c r="F64">
-        <v>-0.01499524973024134</v>
+        <v>0.06901193573684521</v>
       </c>
       <c r="G64">
-        <v>0.0320128841050787</v>
+        <v>0.00500880256876759</v>
       </c>
       <c r="H64">
-        <v>-0.04952017122629674</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.07046769901096427</v>
+      </c>
+      <c r="I64">
+        <v>0.03134802748601108</v>
+      </c>
+      <c r="J64">
+        <v>0.003590706015789364</v>
+      </c>
+      <c r="K64">
+        <v>0.01344849631716063</v>
+      </c>
+      <c r="L64">
+        <v>0.02874682020093014</v>
+      </c>
+      <c r="M64">
+        <v>0.0342274378066882</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1257384284422357</v>
+        <v>-0.1235415917895411</v>
       </c>
       <c r="C65">
-        <v>-0.04865870444728103</v>
+        <v>0.04572972167348333</v>
       </c>
       <c r="D65">
-        <v>0.02755464409940876</v>
+        <v>-0.007827931522444292</v>
       </c>
       <c r="E65">
-        <v>0.086713353628945</v>
+        <v>-0.02424319611301661</v>
       </c>
       <c r="F65">
-        <v>-0.1530192315935365</v>
+        <v>0.01560962029267547</v>
       </c>
       <c r="G65">
-        <v>0.03562783766551432</v>
+        <v>0.178421965505139</v>
       </c>
       <c r="H65">
-        <v>0.6730440180549609</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.2659335069067516</v>
+      </c>
+      <c r="I65">
+        <v>-0.4139755454034858</v>
+      </c>
+      <c r="J65">
+        <v>0.4216781375222771</v>
+      </c>
+      <c r="K65">
+        <v>-0.2221111591690162</v>
+      </c>
+      <c r="L65">
+        <v>-0.1379104354317931</v>
+      </c>
+      <c r="M65">
+        <v>0.09951047879286114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.1542454261956969</v>
+        <v>-0.1260616712578799</v>
       </c>
       <c r="C66">
-        <v>-0.1318333487602109</v>
+        <v>0.1298247717272287</v>
       </c>
       <c r="D66">
-        <v>0.02291345240162615</v>
+        <v>-0.09881182595849208</v>
       </c>
       <c r="E66">
-        <v>0.001744491826763654</v>
+        <v>-0.0345712692035154</v>
       </c>
       <c r="F66">
-        <v>0.03403916282356939</v>
+        <v>0.1614520468113513</v>
       </c>
       <c r="G66">
-        <v>0.155753459561815</v>
+        <v>-0.07623795475026657</v>
       </c>
       <c r="H66">
-        <v>-0.275529996260063</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.08247110525018549</v>
+      </c>
+      <c r="I66">
+        <v>0.1774876471909119</v>
+      </c>
+      <c r="J66">
+        <v>-0.1592900047646476</v>
+      </c>
+      <c r="K66">
+        <v>-0.04238978571185822</v>
+      </c>
+      <c r="L66">
+        <v>0.110102297399826</v>
+      </c>
+      <c r="M66">
+        <v>0.1132637147854867</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.08099615042317619</v>
+        <v>-0.08022756421703563</v>
       </c>
       <c r="C67">
-        <v>-0.05495140899610574</v>
+        <v>0.05913889245345688</v>
       </c>
       <c r="D67">
-        <v>0.006054351013452633</v>
+        <v>0.02253415058720357</v>
       </c>
       <c r="E67">
-        <v>0.009211134195967587</v>
+        <v>0.01771988256638021</v>
       </c>
       <c r="F67">
-        <v>0.01507964670919996</v>
+        <v>-0.05522165835119659</v>
       </c>
       <c r="G67">
-        <v>-0.01064361956158591</v>
+        <v>-0.08556350147301972</v>
       </c>
       <c r="H67">
-        <v>-0.05859672417972051</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.03188097924655643</v>
+      </c>
+      <c r="I67">
+        <v>0.09158784208020138</v>
+      </c>
+      <c r="J67">
+        <v>0.003780426138356531</v>
+      </c>
+      <c r="K67">
+        <v>0.08279077811355869</v>
+      </c>
+      <c r="L67">
+        <v>-0.09560090824611696</v>
+      </c>
+      <c r="M67">
+        <v>0.08000196768455163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.09626634799861028</v>
+        <v>-0.1227463907395274</v>
       </c>
       <c r="C68">
-        <v>0.27961579989715</v>
+        <v>-0.2731411706160361</v>
       </c>
       <c r="D68">
-        <v>0.0008859338972801533</v>
+        <v>-0.009609588449200592</v>
       </c>
       <c r="E68">
-        <v>0.01224420131657654</v>
+        <v>0.002491566288104906</v>
       </c>
       <c r="F68">
-        <v>0.03228165428042948</v>
+        <v>0.0377304605590161</v>
       </c>
       <c r="G68">
-        <v>-0.03190918657051236</v>
+        <v>-0.02591032043615422</v>
       </c>
       <c r="H68">
-        <v>0.02065681768537608</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.01622231579732649</v>
+      </c>
+      <c r="I68">
+        <v>-0.03569646571658371</v>
+      </c>
+      <c r="J68">
+        <v>0.04539532007923973</v>
+      </c>
+      <c r="K68">
+        <v>-0.01994091746800078</v>
+      </c>
+      <c r="L68">
+        <v>0.02445568974323989</v>
+      </c>
+      <c r="M68">
+        <v>0.02929639336907935</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.03763221657397561</v>
+        <v>-0.04192261767975679</v>
       </c>
       <c r="C69">
-        <v>-0.02747780736547907</v>
+        <v>0.02085308599145167</v>
       </c>
       <c r="D69">
-        <v>0.004296195480588265</v>
+        <v>0.005726702849603174</v>
       </c>
       <c r="E69">
-        <v>0.01751293524848282</v>
+        <v>-9.197643254922352e-05</v>
       </c>
       <c r="F69">
-        <v>0.02419334389663446</v>
+        <v>0.01755837151048043</v>
       </c>
       <c r="G69">
-        <v>0.03695086747920185</v>
+        <v>-0.02526689492627773</v>
       </c>
       <c r="H69">
-        <v>0.00597213694682307</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.01136490537991551</v>
+      </c>
+      <c r="I69">
+        <v>0.01184350714038873</v>
+      </c>
+      <c r="J69">
+        <v>0.01838030635048075</v>
+      </c>
+      <c r="K69">
+        <v>0.004788395428883522</v>
+      </c>
+      <c r="L69">
+        <v>-0.008493563301039484</v>
+      </c>
+      <c r="M69">
+        <v>-0.08030236632374115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.05449490953703996</v>
+        <v>-0.05374898748884151</v>
       </c>
       <c r="C70">
-        <v>0.002380446120698214</v>
+        <v>0.03439740963856151</v>
       </c>
       <c r="D70">
-        <v>0.03675434960347929</v>
+        <v>-0.02033948591434193</v>
       </c>
       <c r="E70">
-        <v>0.003376793683403677</v>
+        <v>0.02250318361113617</v>
       </c>
       <c r="F70">
-        <v>-0.09614811566476923</v>
+        <v>-0.003878495650718707</v>
       </c>
       <c r="G70">
-        <v>-0.06517481465492567</v>
+        <v>0.06137878396779897</v>
       </c>
       <c r="H70">
-        <v>-0.0196539505362011</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.0001006596060532889</v>
+      </c>
+      <c r="I70">
+        <v>-0.04351538181918271</v>
+      </c>
+      <c r="J70">
+        <v>0.136263642347549</v>
+      </c>
+      <c r="K70">
+        <v>0.2658244378081145</v>
+      </c>
+      <c r="L70">
+        <v>0.04918474291251008</v>
+      </c>
+      <c r="M70">
+        <v>-0.08136835741843701</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.1034554637226426</v>
+        <v>-0.1374091350415724</v>
       </c>
       <c r="C71">
-        <v>0.2795998232004234</v>
+        <v>-0.2813006658282057</v>
       </c>
       <c r="D71">
-        <v>0.03303882197413281</v>
+        <v>-0.01505055011260676</v>
       </c>
       <c r="E71">
-        <v>0.004543160004818863</v>
+        <v>0.02050040113239427</v>
       </c>
       <c r="F71">
-        <v>0.001888625461924524</v>
+        <v>0.03688594959661354</v>
       </c>
       <c r="G71">
-        <v>-0.01142723010825906</v>
+        <v>-0.02814871490108126</v>
       </c>
       <c r="H71">
-        <v>-0.006309861764416201</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.02466779676511992</v>
+      </c>
+      <c r="I71">
+        <v>0.002823195663683413</v>
+      </c>
+      <c r="J71">
+        <v>0.0246227858786002</v>
+      </c>
+      <c r="K71">
+        <v>-0.02017536566986514</v>
+      </c>
+      <c r="L71">
+        <v>0.01614609900309952</v>
+      </c>
+      <c r="M71">
+        <v>0.01292956733539409</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1822103137826874</v>
+        <v>-0.1437027086232139</v>
       </c>
       <c r="C72">
-        <v>-0.03232600479696191</v>
+        <v>0.03123608111210979</v>
       </c>
       <c r="D72">
-        <v>-0.2451792855986679</v>
+        <v>0.009504101326893053</v>
       </c>
       <c r="E72">
-        <v>-0.05262072156254265</v>
+        <v>-0.1909821312670372</v>
       </c>
       <c r="F72">
-        <v>0.03664411430049533</v>
+        <v>0.03798604469197498</v>
       </c>
       <c r="G72">
-        <v>0.07475672418882105</v>
+        <v>-0.01441038579429763</v>
       </c>
       <c r="H72">
-        <v>0.09219502754907832</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.02125241623800766</v>
+      </c>
+      <c r="I72">
+        <v>-0.03805562702106336</v>
+      </c>
+      <c r="J72">
+        <v>0.06193866097373903</v>
+      </c>
+      <c r="K72">
+        <v>-0.05609292710937025</v>
+      </c>
+      <c r="L72">
+        <v>-0.1352769297222354</v>
+      </c>
+      <c r="M72">
+        <v>0.0142436920681935</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2774977214909214</v>
+        <v>-0.2422190024335198</v>
       </c>
       <c r="C73">
-        <v>-0.1869006922962696</v>
+        <v>0.1506034429730448</v>
       </c>
       <c r="D73">
-        <v>0.1051366038759237</v>
+        <v>-0.1385047420948116</v>
       </c>
       <c r="E73">
-        <v>-0.03189872055630329</v>
+        <v>0.09073821219845345</v>
       </c>
       <c r="F73">
-        <v>-0.2036705327707542</v>
+        <v>-0.4452058180876634</v>
       </c>
       <c r="G73">
-        <v>0.02268233953116174</v>
+        <v>0.1243831211187841</v>
       </c>
       <c r="H73">
-        <v>0.158833082224181</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.252735618800858</v>
+      </c>
+      <c r="I73">
+        <v>0.2768159015227131</v>
+      </c>
+      <c r="J73">
+        <v>-0.1649976725962198</v>
+      </c>
+      <c r="K73">
+        <v>-0.2879244615105394</v>
+      </c>
+      <c r="L73">
+        <v>-0.03945686323183054</v>
+      </c>
+      <c r="M73">
+        <v>0.1294030289295759</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.09289737523224897</v>
+        <v>-0.09308218426094068</v>
       </c>
       <c r="C74">
-        <v>-0.0400967487823715</v>
+        <v>0.07260159115137936</v>
       </c>
       <c r="D74">
-        <v>0.006374624313681586</v>
+        <v>-0.008585445180900765</v>
       </c>
       <c r="E74">
-        <v>-0.02544971354004956</v>
+        <v>-0.01327295824986767</v>
       </c>
       <c r="F74">
-        <v>0.1362325567838533</v>
+        <v>-0.03205227888993704</v>
       </c>
       <c r="G74">
-        <v>-0.022161675351264</v>
+        <v>-0.1453330451876689</v>
       </c>
       <c r="H74">
-        <v>0.06335915350899761</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.03252540277965114</v>
+      </c>
+      <c r="I74">
+        <v>0.02922503630577966</v>
+      </c>
+      <c r="J74">
+        <v>0.04441692512582927</v>
+      </c>
+      <c r="K74">
+        <v>-0.02472751181776032</v>
+      </c>
+      <c r="L74">
+        <v>-0.01497562459448042</v>
+      </c>
+      <c r="M74">
+        <v>0.01332260166256706</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.09130827514415535</v>
+        <v>-0.09295758152995541</v>
       </c>
       <c r="C75">
-        <v>-0.018899524440857</v>
+        <v>0.0527607578892746</v>
       </c>
       <c r="D75">
-        <v>0.01149334900361322</v>
+        <v>-0.00638369307873848</v>
       </c>
       <c r="E75">
-        <v>-0.03932816530621558</v>
+        <v>-0.01151054163668662</v>
       </c>
       <c r="F75">
-        <v>0.1152975030046674</v>
+        <v>-0.01908436753488887</v>
       </c>
       <c r="G75">
-        <v>-0.04083334948747534</v>
+        <v>-0.1035221918290919</v>
       </c>
       <c r="H75">
-        <v>0.02697284935838829</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.08128860627539111</v>
+      </c>
+      <c r="I75">
+        <v>-0.03639705497337643</v>
+      </c>
+      <c r="J75">
+        <v>0.01406170969373743</v>
+      </c>
+      <c r="K75">
+        <v>-0.002606708914150086</v>
+      </c>
+      <c r="L75">
+        <v>-0.03787423133848007</v>
+      </c>
+      <c r="M75">
+        <v>-0.07437275893459226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1355052591135009</v>
+        <v>-0.088761691740076</v>
       </c>
       <c r="C76">
-        <v>-0.02842388580323434</v>
+        <v>0.06210515775191291</v>
       </c>
       <c r="D76">
-        <v>0.01713437358003384</v>
+        <v>-0.003095000986129057</v>
       </c>
       <c r="E76">
-        <v>-0.01976799331320385</v>
+        <v>0.006172931018037068</v>
       </c>
       <c r="F76">
-        <v>0.2422439265936706</v>
+        <v>-0.04617182291486364</v>
       </c>
       <c r="G76">
-        <v>-0.04227675153178359</v>
+        <v>-0.1923120156265173</v>
       </c>
       <c r="H76">
-        <v>0.07610517528260237</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.122312679991041</v>
+      </c>
+      <c r="I76">
+        <v>-0.03923468818949837</v>
+      </c>
+      <c r="J76">
+        <v>0.03357363337882905</v>
+      </c>
+      <c r="K76">
+        <v>-0.01689086170501402</v>
+      </c>
+      <c r="L76">
+        <v>-0.04377165343711177</v>
+      </c>
+      <c r="M76">
+        <v>0.09202750141681651</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.07270627093753838</v>
+        <v>-0.07019769643971122</v>
       </c>
       <c r="C77">
-        <v>-0.02822334438688153</v>
+        <v>0.02374948021228682</v>
       </c>
       <c r="D77">
-        <v>0.01033222547421586</v>
+        <v>-0.01683338165695664</v>
       </c>
       <c r="E77">
-        <v>0.1839683101543168</v>
+        <v>0.05379955140384891</v>
       </c>
       <c r="F77">
-        <v>-0.149124474140072</v>
+        <v>0.2837388939605296</v>
       </c>
       <c r="G77">
-        <v>0.634986897177354</v>
+        <v>0.1246762395439491</v>
       </c>
       <c r="H77">
-        <v>-0.1773374738499292</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.3281966499326417</v>
+      </c>
+      <c r="I77">
+        <v>0.0927811230833695</v>
+      </c>
+      <c r="J77">
+        <v>-0.2567169831565144</v>
+      </c>
+      <c r="K77">
+        <v>0.3217200134978218</v>
+      </c>
+      <c r="L77">
+        <v>-0.5723940413382932</v>
+      </c>
+      <c r="M77">
+        <v>-0.03839804255046013</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1456312115788474</v>
+        <v>-0.1641838309348563</v>
       </c>
       <c r="C78">
-        <v>-0.07535107379666063</v>
+        <v>0.1270608113115477</v>
       </c>
       <c r="D78">
-        <v>0.01967657842238313</v>
+        <v>0.180273785871552</v>
       </c>
       <c r="E78">
-        <v>0.1756632996289197</v>
+        <v>0.1050256894734553</v>
       </c>
       <c r="F78">
-        <v>-0.01251594088514612</v>
+        <v>0.1463981003407593</v>
       </c>
       <c r="G78">
-        <v>-0.005004440248819572</v>
+        <v>0.2712684594939976</v>
       </c>
       <c r="H78">
-        <v>-0.08614153881118884</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.3888078867484336</v>
+      </c>
+      <c r="I78">
+        <v>-0.4562551759337966</v>
+      </c>
+      <c r="J78">
+        <v>-0.5229291425722845</v>
+      </c>
+      <c r="K78">
+        <v>-0.1713001244682768</v>
+      </c>
+      <c r="L78">
+        <v>-0.08761285788063869</v>
+      </c>
+      <c r="M78">
+        <v>0.1206165560061817</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.141481184684674</v>
+        <v>-0.1339520772278682</v>
       </c>
       <c r="C79">
-        <v>-0.0490207960087654</v>
+        <v>0.07616891528941903</v>
       </c>
       <c r="D79">
-        <v>0.02466227295398129</v>
+        <v>-0.002908461120796727</v>
       </c>
       <c r="E79">
-        <v>-0.05008228083549796</v>
+        <v>0.001986705485989769</v>
       </c>
       <c r="F79">
-        <v>0.1662440546332319</v>
+        <v>0.003159213905135965</v>
       </c>
       <c r="G79">
-        <v>-0.03025948628605823</v>
+        <v>-0.1643548442773347</v>
       </c>
       <c r="H79">
-        <v>0.02279092933613523</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.08967994983435694</v>
+      </c>
+      <c r="I79">
+        <v>-0.009691082484536239</v>
+      </c>
+      <c r="J79">
+        <v>0.0753088274561446</v>
+      </c>
+      <c r="K79">
+        <v>-0.002838146177349121</v>
+      </c>
+      <c r="L79">
+        <v>-0.07287786010103732</v>
+      </c>
+      <c r="M79">
+        <v>-0.02056813440999813</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.02618889422414677</v>
+        <v>-0.05667611035092323</v>
       </c>
       <c r="C80">
-        <v>-0.001576798434232672</v>
+        <v>0.02738144288243395</v>
       </c>
       <c r="D80">
-        <v>0.005054457104999351</v>
+        <v>-0.0674593657974611</v>
       </c>
       <c r="E80">
-        <v>-0.04380502791092266</v>
+        <v>0.007404128708483356</v>
       </c>
       <c r="F80">
-        <v>0.001535928927820149</v>
+        <v>0.03063185427616322</v>
       </c>
       <c r="G80">
-        <v>0.01663529440152444</v>
+        <v>0.02689944855994492</v>
       </c>
       <c r="H80">
-        <v>0.05867699607681072</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.006202995117261868</v>
+      </c>
+      <c r="I80">
+        <v>-0.04812894102761532</v>
+      </c>
+      <c r="J80">
+        <v>0.06889630739054925</v>
+      </c>
+      <c r="K80">
+        <v>-0.0311541180493663</v>
+      </c>
+      <c r="L80">
+        <v>0.1906023209800026</v>
+      </c>
+      <c r="M80">
+        <v>0.006746172072021534</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1096890161072522</v>
+        <v>-0.1213042078042531</v>
       </c>
       <c r="C81">
-        <v>-0.05419197201083253</v>
+        <v>0.06089933162693608</v>
       </c>
       <c r="D81">
-        <v>0.0324290266652158</v>
+        <v>-0.003329926096551795</v>
       </c>
       <c r="E81">
-        <v>-0.04562044340020723</v>
+        <v>0.006796643155822339</v>
       </c>
       <c r="F81">
-        <v>0.1081380875917214</v>
+        <v>0.02512015509744209</v>
       </c>
       <c r="G81">
-        <v>-0.01578556439769644</v>
+        <v>-0.1321785078860006</v>
       </c>
       <c r="H81">
-        <v>0.02358108434670159</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.09306704305779577</v>
+      </c>
+      <c r="I81">
+        <v>0.01235881333930548</v>
+      </c>
+      <c r="J81">
+        <v>0.03560495004019637</v>
+      </c>
+      <c r="K81">
+        <v>-0.001682393802103869</v>
+      </c>
+      <c r="L81">
+        <v>-0.04174866076403181</v>
+      </c>
+      <c r="M81">
+        <v>-0.09854117895292785</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1121284442508254</v>
+        <v>-0.1174926458419828</v>
       </c>
       <c r="C82">
-        <v>-0.02825664280668611</v>
+        <v>0.05350802705786387</v>
       </c>
       <c r="D82">
-        <v>0.0600044459520991</v>
+        <v>-0.02646744260369796</v>
       </c>
       <c r="E82">
-        <v>-0.07986600289942608</v>
+        <v>-0.004504359424155717</v>
       </c>
       <c r="F82">
-        <v>0.2527103886688494</v>
+        <v>-0.02548243677399773</v>
       </c>
       <c r="G82">
-        <v>-0.02803032523818854</v>
+        <v>-0.2281892280766148</v>
       </c>
       <c r="H82">
-        <v>-0.002050525366202735</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.1365474554781864</v>
+      </c>
+      <c r="I82">
+        <v>0.03450163240029003</v>
+      </c>
+      <c r="J82">
+        <v>0.04856072191226143</v>
+      </c>
+      <c r="K82">
+        <v>0.06086030804018874</v>
+      </c>
+      <c r="L82">
+        <v>0.009680610009698368</v>
+      </c>
+      <c r="M82">
+        <v>-0.04699653887196976</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.06139145860589723</v>
+        <v>-0.07516953210020429</v>
       </c>
       <c r="C83">
-        <v>-0.04767059838193589</v>
+        <v>0.07016528191441901</v>
       </c>
       <c r="D83">
-        <v>0.02651434891655742</v>
+        <v>-0.0165501704980652</v>
       </c>
       <c r="E83">
-        <v>0.003628542625526698</v>
+        <v>0.004997440819126355</v>
       </c>
       <c r="F83">
-        <v>-0.0600608321049677</v>
+        <v>0.02061310686631461</v>
       </c>
       <c r="G83">
-        <v>0.007381022774609355</v>
+        <v>-0.03749282257573018</v>
       </c>
       <c r="H83">
-        <v>-0.09242769240452708</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.07769705908653078</v>
+      </c>
+      <c r="I83">
+        <v>0.01431573138288839</v>
+      </c>
+      <c r="J83">
+        <v>-0.004370807212522854</v>
+      </c>
+      <c r="K83">
+        <v>0.0959097059370143</v>
+      </c>
+      <c r="L83">
+        <v>0.1188104100829893</v>
+      </c>
+      <c r="M83">
+        <v>0.04642817979030947</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.04943324520401903</v>
+        <v>-0.04753221444539903</v>
       </c>
       <c r="C84">
-        <v>-0.04437638035804531</v>
+        <v>-0.02029624741293402</v>
       </c>
       <c r="D84">
-        <v>-0.06474865581075662</v>
+        <v>-0.00685751281728935</v>
       </c>
       <c r="E84">
-        <v>-0.009627537536226635</v>
+        <v>-0.01857764230185498</v>
       </c>
       <c r="F84">
-        <v>0.04125073343698198</v>
+        <v>0.008622148699263482</v>
       </c>
       <c r="G84">
-        <v>-0.1442214569328372</v>
+        <v>0.2156487741943539</v>
       </c>
       <c r="H84">
-        <v>-0.002389214138708096</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.1427665368248551</v>
+      </c>
+      <c r="I84">
+        <v>0.1293353538000906</v>
+      </c>
+      <c r="J84">
+        <v>0.03883406644142175</v>
+      </c>
+      <c r="K84">
+        <v>0.07909543033768038</v>
+      </c>
+      <c r="L84">
+        <v>0.2260493974733487</v>
+      </c>
+      <c r="M84">
+        <v>0.486425911189568</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.09045522399693136</v>
+        <v>-0.1093010985389463</v>
       </c>
       <c r="C85">
-        <v>-0.04381787849316136</v>
+        <v>0.05055904839265409</v>
       </c>
       <c r="D85">
-        <v>0.05344897941167694</v>
+        <v>-0.01211851650596367</v>
       </c>
       <c r="E85">
-        <v>-0.03289476440983015</v>
+        <v>0.02810967592912387</v>
       </c>
       <c r="F85">
-        <v>0.1952317062248671</v>
+        <v>0.005563820038159423</v>
       </c>
       <c r="G85">
-        <v>0.01723812747705005</v>
+        <v>-0.169412395738136</v>
       </c>
       <c r="H85">
-        <v>0.05804300153168592</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.09284372390176085</v>
+      </c>
+      <c r="I85">
+        <v>-0.003551345494196861</v>
+      </c>
+      <c r="J85">
+        <v>0.07118321703394004</v>
+      </c>
+      <c r="K85">
+        <v>-0.02125177153587124</v>
+      </c>
+      <c r="L85">
+        <v>-0.09049256795651778</v>
+      </c>
+      <c r="M85">
+        <v>-0.03449986779180145</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.04810571111634959</v>
+        <v>-0.07182995437329091</v>
       </c>
       <c r="C86">
-        <v>-0.04768030032740782</v>
+        <v>0.02326835106482278</v>
       </c>
       <c r="D86">
-        <v>0.01067424687807898</v>
+        <v>0.02004718915004462</v>
       </c>
       <c r="E86">
-        <v>0.03532800112537603</v>
+        <v>0.1148327976220176</v>
       </c>
       <c r="F86">
-        <v>-0.04307343599870987</v>
+        <v>0.04899133258775178</v>
       </c>
       <c r="G86">
-        <v>0.05940327248466649</v>
+        <v>0.4737609633545999</v>
       </c>
       <c r="H86">
-        <v>0.09780138024657029</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.4837655347028171</v>
+      </c>
+      <c r="I86">
+        <v>0.3921658460414634</v>
+      </c>
+      <c r="J86">
+        <v>0.333687205331324</v>
+      </c>
+      <c r="K86">
+        <v>-0.04352935574080277</v>
+      </c>
+      <c r="L86">
+        <v>-0.1730611497375247</v>
+      </c>
+      <c r="M86">
+        <v>0.01522930406156955</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.09396907447650343</v>
+        <v>-0.1124964074758253</v>
       </c>
       <c r="C87">
-        <v>-0.05968498927001542</v>
+        <v>0.06849272003133952</v>
       </c>
       <c r="D87">
-        <v>0.005852451314188264</v>
+        <v>0.02831348059424225</v>
       </c>
       <c r="E87">
-        <v>0.1051540975104322</v>
+        <v>0.03233181369388929</v>
       </c>
       <c r="F87">
-        <v>-0.02424131880628675</v>
+        <v>0.1134211818301595</v>
       </c>
       <c r="G87">
-        <v>0.122762239136155</v>
+        <v>0.07298085506535403</v>
       </c>
       <c r="H87">
-        <v>-0.07168109078729981</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.1202725927532547</v>
+      </c>
+      <c r="I87">
+        <v>0.05407897730846068</v>
+      </c>
+      <c r="J87">
+        <v>-0.02002805465800002</v>
+      </c>
+      <c r="K87">
+        <v>0.1903156460205347</v>
+      </c>
+      <c r="L87">
+        <v>-0.05734969479803159</v>
+      </c>
+      <c r="M87">
+        <v>-0.05558149423390985</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.0553521620517846</v>
+        <v>-0.0580574430847216</v>
       </c>
       <c r="C88">
-        <v>-0.04223424368119407</v>
+        <v>0.05386978357683594</v>
       </c>
       <c r="D88">
-        <v>0.02633455221140149</v>
+        <v>-0.02933459055829554</v>
       </c>
       <c r="E88">
-        <v>0.01073382300973755</v>
+        <v>0.006517788142417833</v>
       </c>
       <c r="F88">
-        <v>-0.011236897460382</v>
+        <v>0.03667822968714983</v>
       </c>
       <c r="G88">
-        <v>0.02530405760404953</v>
+        <v>-0.0319507693801243</v>
       </c>
       <c r="H88">
-        <v>-0.03584191193694646</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.009997689716201564</v>
+      </c>
+      <c r="I88">
+        <v>0.01694273843227599</v>
+      </c>
+      <c r="J88">
+        <v>0.01164759458403312</v>
+      </c>
+      <c r="K88">
+        <v>-0.02273323379989865</v>
+      </c>
+      <c r="L88">
+        <v>0.06718198911969994</v>
+      </c>
+      <c r="M88">
+        <v>-0.04854521438554229</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1611785042318489</v>
+        <v>-0.2128960930085412</v>
       </c>
       <c r="C89">
-        <v>0.3262654280570762</v>
+        <v>-0.3588086681716344</v>
       </c>
       <c r="D89">
-        <v>0.06741528981757612</v>
+        <v>0.03847232827297601</v>
       </c>
       <c r="E89">
-        <v>0.08530035607607811</v>
+        <v>0.08405043052665241</v>
       </c>
       <c r="F89">
-        <v>-0.0482458612377589</v>
+        <v>0.01644586922812647</v>
       </c>
       <c r="G89">
-        <v>0.02284803194126533</v>
+        <v>0.00413934765120445</v>
       </c>
       <c r="H89">
-        <v>-0.006904553418817106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.005766885842576929</v>
+      </c>
+      <c r="I89">
+        <v>0.02185050085526531</v>
+      </c>
+      <c r="J89">
+        <v>-0.05280916931934285</v>
+      </c>
+      <c r="K89">
+        <v>-0.01378969135867794</v>
+      </c>
+      <c r="L89">
+        <v>0.06324657882229769</v>
+      </c>
+      <c r="M89">
+        <v>-0.07165555751942658</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.123217804026737</v>
+        <v>-0.1481510156850023</v>
       </c>
       <c r="C90">
-        <v>0.2772819469810092</v>
+        <v>-0.2700004946533248</v>
       </c>
       <c r="D90">
-        <v>0.009858235202269403</v>
+        <v>-0.01214658371639183</v>
       </c>
       <c r="E90">
-        <v>0.05692030053025057</v>
+        <v>0.02287657496073226</v>
       </c>
       <c r="F90">
-        <v>-0.04503870266029107</v>
+        <v>0.03445652518247029</v>
       </c>
       <c r="G90">
-        <v>0.09207878884742669</v>
+        <v>0.01461605984040459</v>
       </c>
       <c r="H90">
-        <v>-0.0516183141132527</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.05384425559454816</v>
+      </c>
+      <c r="I90">
+        <v>0.03204230173291273</v>
+      </c>
+      <c r="J90">
+        <v>-0.009662591193041064</v>
+      </c>
+      <c r="K90">
+        <v>-0.02597284671710459</v>
+      </c>
+      <c r="L90">
+        <v>0.00955294039668738</v>
+      </c>
+      <c r="M90">
+        <v>0.06144989741314574</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.08429597280877701</v>
+        <v>-0.07636272117318565</v>
       </c>
       <c r="C91">
-        <v>-0.01910245699494359</v>
+        <v>0.05424420361260735</v>
       </c>
       <c r="D91">
-        <v>0.01066634268508092</v>
+        <v>0.005801753617626395</v>
       </c>
       <c r="E91">
-        <v>0.01348824282653563</v>
+        <v>0.00675218193293937</v>
       </c>
       <c r="F91">
-        <v>0.1065622182623608</v>
+        <v>-0.01461312345302166</v>
       </c>
       <c r="G91">
-        <v>-0.04966293345931253</v>
+        <v>-0.0853184185797331</v>
       </c>
       <c r="H91">
-        <v>0.02710265092294682</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.06914547201208403</v>
+      </c>
+      <c r="I91">
+        <v>-0.005705411996874366</v>
+      </c>
+      <c r="J91">
+        <v>-0.004081597071507828</v>
+      </c>
+      <c r="K91">
+        <v>-0.01300294882210619</v>
+      </c>
+      <c r="L91">
+        <v>-0.01797625578636643</v>
+      </c>
+      <c r="M91">
+        <v>-0.003322230710426832</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1367721126393786</v>
+        <v>-0.1645060604592896</v>
       </c>
       <c r="C92">
-        <v>0.3066474527161828</v>
+        <v>-0.3027034885845807</v>
       </c>
       <c r="D92">
-        <v>0.04989116803323057</v>
+        <v>0.0292194636343466</v>
       </c>
       <c r="E92">
-        <v>0.0369948702692539</v>
+        <v>0.04793168105165465</v>
       </c>
       <c r="F92">
-        <v>-0.03405126578259475</v>
+        <v>0.0322385250495177</v>
       </c>
       <c r="G92">
-        <v>-0.08580537602886319</v>
+        <v>-0.02300738852151644</v>
       </c>
       <c r="H92">
-        <v>0.01861185439990896</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.006197280674473168</v>
+      </c>
+      <c r="I92">
+        <v>-0.009998224357274967</v>
+      </c>
+      <c r="J92">
+        <v>-0.01812298164829059</v>
+      </c>
+      <c r="K92">
+        <v>-0.02697503854157367</v>
+      </c>
+      <c r="L92">
+        <v>0.04387862722129367</v>
+      </c>
+      <c r="M92">
+        <v>-0.08442719762671935</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.136695165958045</v>
+        <v>-0.1647300210018093</v>
       </c>
       <c r="C93">
-        <v>0.2567074931694928</v>
+        <v>-0.2874493854979528</v>
       </c>
       <c r="D93">
-        <v>0.03075961101515852</v>
+        <v>-0.0329093924688942</v>
       </c>
       <c r="E93">
-        <v>0.02162899960372063</v>
+        <v>0.01104537557761031</v>
       </c>
       <c r="F93">
-        <v>-0.03446781921886103</v>
+        <v>0.01613312917181223</v>
       </c>
       <c r="G93">
-        <v>0.009530606730730449</v>
+        <v>0.01068299645760677</v>
       </c>
       <c r="H93">
-        <v>-0.0155216313013478</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.007566961117131114</v>
+      </c>
+      <c r="I93">
+        <v>0.01530378145430984</v>
+      </c>
+      <c r="J93">
+        <v>0.03838877217676416</v>
+      </c>
+      <c r="K93">
+        <v>0.007474615911800034</v>
+      </c>
+      <c r="L93">
+        <v>0.02716455360051991</v>
+      </c>
+      <c r="M93">
+        <v>0.0421032447492649</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.09202019880067885</v>
+        <v>-0.1087135939673625</v>
       </c>
       <c r="C94">
-        <v>-0.05654302773263521</v>
+        <v>0.07497630510756266</v>
       </c>
       <c r="D94">
-        <v>0.006540348108332632</v>
+        <v>0.01804473111499836</v>
       </c>
       <c r="E94">
-        <v>-0.001330287309904873</v>
+        <v>0.01255237372220866</v>
       </c>
       <c r="F94">
-        <v>0.1693875749814312</v>
+        <v>-0.03253021820514774</v>
       </c>
       <c r="G94">
-        <v>-0.06761261103083629</v>
+        <v>-0.1285261066924155</v>
       </c>
       <c r="H94">
-        <v>0.07137013657923504</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.06920143749675289</v>
+      </c>
+      <c r="I94">
+        <v>-0.03241757450862192</v>
+      </c>
+      <c r="J94">
+        <v>0.02081385087760619</v>
+      </c>
+      <c r="K94">
+        <v>-0.0507572483528283</v>
+      </c>
+      <c r="L94">
+        <v>-0.01054203139744137</v>
+      </c>
+      <c r="M94">
+        <v>-0.01489099645851626</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.1010974454274706</v>
+        <v>-0.1257590047482818</v>
       </c>
       <c r="C95">
-        <v>-0.07216829589606402</v>
+        <v>0.07208913448152496</v>
       </c>
       <c r="D95">
-        <v>0.06520282896840307</v>
+        <v>0.01656637425324031</v>
       </c>
       <c r="E95">
-        <v>0.04979856070669767</v>
+        <v>0.06781647874900637</v>
       </c>
       <c r="F95">
-        <v>-0.0506083270866621</v>
+        <v>0.08710798756396161</v>
       </c>
       <c r="G95">
-        <v>0.003100660922711433</v>
+        <v>0.2044068379782669</v>
       </c>
       <c r="H95">
-        <v>0.00246343114927886</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.04638838747552911</v>
+      </c>
+      <c r="I95">
+        <v>0.05943259314630065</v>
+      </c>
+      <c r="J95">
+        <v>0.1381761997093517</v>
+      </c>
+      <c r="K95">
+        <v>-0.0650842487981854</v>
+      </c>
+      <c r="L95">
+        <v>0.1173305300675215</v>
+      </c>
+      <c r="M95">
+        <v>-0.5011727346811926</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>6.899430552400556e-05</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.0009571757389002597</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.0002731795862842777</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.001525812587881821</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.0005949523448945042</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.0001070488681809511</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.0006933326126673209</v>
+      </c>
+      <c r="I96">
+        <v>0.001967777750313071</v>
+      </c>
+      <c r="J96">
+        <v>0.001774165150065822</v>
+      </c>
+      <c r="K96">
+        <v>0.001347194456197855</v>
+      </c>
+      <c r="L96">
+        <v>-0.00323333034871585</v>
+      </c>
+      <c r="M96">
+        <v>0.003554184579079996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.249113792313458</v>
+        <v>-0.1618966199299825</v>
       </c>
       <c r="C97">
-        <v>0.002350384561243997</v>
+        <v>-0.007805782026184603</v>
       </c>
       <c r="D97">
-        <v>-0.8791414290156043</v>
+        <v>0.09607161276398667</v>
       </c>
       <c r="E97">
-        <v>-0.1666946465197704</v>
+        <v>-0.9278207253938396</v>
       </c>
       <c r="F97">
-        <v>-0.1222752295293328</v>
+        <v>0.03794514551995562</v>
       </c>
       <c r="G97">
-        <v>0.02844891026702488</v>
+        <v>0.1270254179455874</v>
       </c>
       <c r="H97">
-        <v>-0.02754913474028409</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.03528055076474478</v>
+      </c>
+      <c r="I97">
+        <v>0.06950694494820923</v>
+      </c>
+      <c r="J97">
+        <v>-0.05139885015746391</v>
+      </c>
+      <c r="K97">
+        <v>-0.00556871678327911</v>
+      </c>
+      <c r="L97">
+        <v>0.001366034900583294</v>
+      </c>
+      <c r="M97">
+        <v>-0.02749464579820625</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2901188345060138</v>
+        <v>-0.2671177050131963</v>
       </c>
       <c r="C98">
-        <v>-0.1236104299976363</v>
+        <v>0.1100578669618864</v>
       </c>
       <c r="D98">
-        <v>0.1722146184865136</v>
+        <v>0.001491612617341306</v>
       </c>
       <c r="E98">
-        <v>-0.2527588489850566</v>
+        <v>0.01395571105811011</v>
       </c>
       <c r="F98">
-        <v>-0.4580721537788501</v>
+        <v>-0.4549643888899172</v>
       </c>
       <c r="G98">
-        <v>-0.4482095412456581</v>
+        <v>0.1691550972876982</v>
       </c>
       <c r="H98">
-        <v>-0.2810422938415779</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.0002525872789779935</v>
+      </c>
+      <c r="I98">
+        <v>-0.2232577204694056</v>
+      </c>
+      <c r="J98">
+        <v>-0.09922946552065422</v>
+      </c>
+      <c r="K98">
+        <v>0.6012312141152441</v>
+      </c>
+      <c r="L98">
+        <v>0.2194898961622831</v>
+      </c>
+      <c r="M98">
+        <v>-0.07681887774167018</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.06461723201364677</v>
+        <v>-0.06918895241703334</v>
       </c>
       <c r="C99">
-        <v>-0.04964415825881126</v>
+        <v>0.05586273460473936</v>
       </c>
       <c r="D99">
-        <v>0.04664506192258997</v>
+        <v>0.00916300514756372</v>
       </c>
       <c r="E99">
-        <v>0.01229713852459925</v>
+        <v>0.03922073721382919</v>
       </c>
       <c r="F99">
-        <v>-0.0248475431868941</v>
+        <v>-0.009936068579210993</v>
       </c>
       <c r="G99">
-        <v>-0.01330374387902157</v>
+        <v>-0.01978472013711606</v>
       </c>
       <c r="H99">
-        <v>-0.06741834435132883</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.01219618611107777</v>
+      </c>
+      <c r="I99">
+        <v>0.01632175601275118</v>
+      </c>
+      <c r="J99">
+        <v>-0.0496427123124748</v>
+      </c>
+      <c r="K99">
+        <v>0.01989704177482693</v>
+      </c>
+      <c r="L99">
+        <v>-0.03399684800799534</v>
+      </c>
+      <c r="M99">
+        <v>-0.1052904999569452</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3303,36 +4803,66 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.05272274679857179</v>
+        <v>-0.04335668571289662</v>
       </c>
       <c r="C101">
-        <v>-0.02118082354349329</v>
+        <v>0.02821648217979418</v>
       </c>
       <c r="D101">
-        <v>0.01025315909617941</v>
+        <v>-0.004058639687692792</v>
       </c>
       <c r="E101">
-        <v>0.0250806983428668</v>
+        <v>0.01969364569605725</v>
       </c>
       <c r="F101">
-        <v>0.001898409484808978</v>
+        <v>0.06007447326339978</v>
       </c>
       <c r="G101">
-        <v>-0.0159038774808506</v>
+        <v>-0.02814917410751026</v>
       </c>
       <c r="H101">
-        <v>0.02002061151717431</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.02159384731543173</v>
+      </c>
+      <c r="I101">
+        <v>-0.01380730527899286</v>
+      </c>
+      <c r="J101">
+        <v>0.05917142916388873</v>
+      </c>
+      <c r="K101">
+        <v>0.01861459536541015</v>
+      </c>
+      <c r="L101">
+        <v>0.04675092385781924</v>
+      </c>
+      <c r="M101">
+        <v>0.01362287751540957</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
